--- a/medicine/Mort/Nécropole_nationale_de_Bray-sur-Somme/Nécropole_nationale_de_Bray-sur-Somme.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Bray-sur-Somme/Nécropole_nationale_de_Bray-sur-Somme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bray-sur-Somme</t>
+          <t>Nécropole_nationale_de_Bray-sur-Somme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Bray-sur-Somme est un cimetière militaire de la Grande Guerre, situé sur le territoire de la commune de Bray-sur-Somme, dans le département de la Somme, à l'est d'Amiens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bray-sur-Somme</t>
+          <t>Nécropole_nationale_de_Bray-sur-Somme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole a été créée au cours de la Grande Guerre, Bray-sur-Somme, située à l'arrière immédiat du front possédait un hôpital militaire. La plupart des corps inhumés sont ceux de soldats tués au cours de la Bataille de la Somme
-En 1923 et 1935, on a transféré dans la nacropole de Bray, des dépouilles provenant de cimetières militaires des environs[1].
+En 1923 et 1935, on a transféré dans la nacropole de Bray, des dépouilles provenant de cimetières militaires des environs.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bray-sur-Somme</t>
+          <t>Nécropole_nationale_de_Bray-sur-Somme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière a une superficie de 0,43 ha et compte 1 045 dépouilles de soldats (dont un Britannique), 943 en tombes individuelles et 102 en ossuaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a une superficie de 0,43 ha et compte 1 045 dépouilles de soldats (dont un Britannique), 943 en tombes individuelles et 102 en ossuaire.
 </t>
         </is>
       </c>
